--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1483.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1483.xlsx
@@ -354,7 +354,7 @@
         <v>2.643812661237369</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.250584020134889</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1483.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1483.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.587394678298983</v>
+        <v>15</v>
       </c>
       <c r="B1">
-        <v>2.643812661237369</v>
+        <v>2.811738252639771</v>
       </c>
       <c r="C1">
+        <v>2.547181367874146</v>
+      </c>
+      <c r="D1">
+        <v>2.849354982376099</v>
+      </c>
+      <c r="E1">
         <v>15</v>
-      </c>
-      <c r="D1">
-        <v>1.250584020134889</v>
-      </c>
-      <c r="E1">
-        <v>0.5492687407961853</v>
       </c>
     </row>
   </sheetData>
